--- a/src/main/doc/需求点v2.2.xlsx
+++ b/src/main/doc/需求点v2.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\43441\Desktop\工程实践\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\LearningProject\graduate\engineeringPractice\sseoj\src\main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F76EC9-BAC2-48BC-8CA9-FADD0A9E9A41}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730CCD0E-FB81-4F58-A74C-C21C61BCA8C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>用户</t>
   </si>
@@ -133,224 +133,224 @@
     <t>写作业</t>
   </si>
   <si>
-    <t>选择教师</t>
+    <t>选择作业</t>
+  </si>
+  <si>
+    <t>超过最晚时间无法选择</t>
+  </si>
+  <si>
+    <t>展示题目列表</t>
+  </si>
+  <si>
+    <t>选择语言</t>
+  </si>
+  <si>
+    <t>输入代码</t>
+  </si>
+  <si>
+    <t>提交作业</t>
+  </si>
+  <si>
+    <t>编译结果</t>
+  </si>
+  <si>
+    <t>题目列表</t>
+  </si>
+  <si>
+    <t>提交时间倒序</t>
+  </si>
+  <si>
+    <t>管理员</t>
+  </si>
+  <si>
+    <t>增加教师账号</t>
+  </si>
+  <si>
+    <t>密码使用默认（考虑学校账号）</t>
+  </si>
+  <si>
+    <t>增加学生账号</t>
+  </si>
+  <si>
+    <t>（可使用excel批量导入）</t>
+  </si>
+  <si>
+    <t>管理账号</t>
+  </si>
+  <si>
+    <t>搜索账号</t>
+  </si>
+  <si>
+    <t>管理账号状态</t>
+  </si>
+  <si>
+    <t>教师列表</t>
+  </si>
+  <si>
+    <t>教师账号信息</t>
+  </si>
+  <si>
+    <t>重置密码</t>
+  </si>
+  <si>
+    <t>删除教师账号</t>
+  </si>
+  <si>
+    <t>学生账号</t>
+  </si>
+  <si>
+    <t>学生账号信息</t>
+  </si>
+  <si>
+    <t>删除学生</t>
+  </si>
+  <si>
+    <t>（会附带删除该学生所有作业）</t>
+  </si>
+  <si>
+    <t>建议毕业就删</t>
+  </si>
+  <si>
+    <t>支持批量</t>
+  </si>
+  <si>
+    <t>（为增量准备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除学生（支持批量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附带删除学生的该门课程所有作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加学生（支持批量）（excel导入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题（增量2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填空题（增量2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼入答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据案例匹配情况给分（增量2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>得分情况（增量2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生管理（增量1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填写或修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用或禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即同时可以作为考试系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会把题目真实删除了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（会真实删除题目）（可批量删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择题目（即在题库中选择题目）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会真实删除题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建作业（实际上是题目的引用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加题目①</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加题目①（引用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择开放时间（可修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择最晚完成日期（可修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业名字（可修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择课程</t>
-  </si>
-  <si>
-    <t>选择作业</t>
-  </si>
-  <si>
-    <t>超过最晚时间无法选择</t>
-  </si>
-  <si>
-    <t>展示题目列表</t>
-  </si>
-  <si>
-    <t>选择语言</t>
-  </si>
-  <si>
-    <t>输入代码</t>
-  </si>
-  <si>
-    <t>提交作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过预定时间无法提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>（在后台编译）</t>
-  </si>
-  <si>
-    <t>超过预定时间无法提交</t>
-  </si>
-  <si>
-    <t>编译结果</t>
-  </si>
-  <si>
-    <t>题目列表</t>
-  </si>
-  <si>
-    <t>提交时间倒序</t>
-  </si>
-  <si>
-    <t>管理员</t>
-  </si>
-  <si>
-    <t>增加教师账号</t>
-  </si>
-  <si>
-    <t>密码使用默认（考虑学校账号）</t>
-  </si>
-  <si>
-    <t>增加学生账号</t>
-  </si>
-  <si>
-    <t>（可使用excel批量导入）</t>
-  </si>
-  <si>
-    <t>管理账号</t>
-  </si>
-  <si>
-    <t>搜索账号</t>
-  </si>
-  <si>
-    <t>管理账号状态</t>
-  </si>
-  <si>
-    <t>教师列表</t>
-  </si>
-  <si>
-    <t>教师账号信息</t>
-  </si>
-  <si>
-    <t>重置密码</t>
-  </si>
-  <si>
-    <t>删除教师账号</t>
-  </si>
-  <si>
-    <t>学生账号</t>
-  </si>
-  <si>
-    <t>学生账号信息</t>
-  </si>
-  <si>
-    <t>删除学生</t>
-  </si>
-  <si>
-    <t>（会附带删除该学生所有作业）</t>
-  </si>
-  <si>
-    <t>建议毕业就删</t>
-  </si>
-  <si>
-    <t>支持批量</t>
-  </si>
-  <si>
-    <t>（为增量准备）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除学生（支持批量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附带删除学生的该门课程所有作业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加学生（支持批量）（excel导入）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择题（增量2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填空题（增量2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼入答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据案例匹配情况给分（增量2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>得分情况（增量2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学生管理（增量1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>填写或修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用或禁用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即同时可以作为考试系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会把题目真实删除了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>（会真实删除题目）（可批量删除）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择题目（即在题库中选择题目）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不会真实删除题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建作业（实际上是题目的引用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>题库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加题目①</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加题目①（引用）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择开放时间（可修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择最晚完成日期（可修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作业名字（可修改）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内存限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间限制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,6 +523,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -551,15 +560,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -839,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -855,13 +855,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -874,9 +874,9 @@
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="25"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="16"/>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
@@ -889,8 +889,8 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
       </c>
@@ -904,8 +904,8 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="9" t="s">
         <v>7</v>
       </c>
@@ -919,8 +919,8 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
@@ -934,9 +934,9 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="24" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -953,9 +953,9 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="26"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="15"/>
       <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
@@ -968,29 +968,29 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="24" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>95</v>
-      </c>
       <c r="F8" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
       <c r="E9" s="13" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -998,12 +998,12 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
       <c r="E10" s="13" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1012,43 +1012,43 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26" t="s">
-        <v>93</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="24" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="24" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -1057,13 +1057,13 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1072,26 +1072,26 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
       <c r="H16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1100,168 +1100,168 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
       <c r="H17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="A18" s="17"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
       <c r="H18" s="2" t="s">
         <v>24</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
       <c r="H19" s="13" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
       <c r="H20" s="13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
       <c r="H21" s="2" t="s">
         <v>25</v>
       </c>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
+      <c r="A22" s="17"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
       <c r="G22" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
+      <c r="A23" s="17"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
       <c r="G23" s="3"/>
       <c r="H23" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
+      <c r="A25" s="17"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
       <c r="G25" s="3"/>
       <c r="H25" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
+      <c r="A27" s="17"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F27" s="11"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="25"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="2" t="s">
         <v>27</v>
       </c>
@@ -1271,14 +1271,14 @@
       <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -1286,9 +1286,9 @@
       <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="26"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1297,14 +1297,14 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="16"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="9" t="s">
         <v>31</v>
       </c>
@@ -1316,13 +1316,13 @@
       <c r="I32" s="12"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="24" t="s">
-        <v>92</v>
+      <c r="A33" s="17"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1331,14 +1331,14 @@
       <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="26"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="15"/>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -1346,11 +1346,11 @@
       <c r="I34" s="12"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1359,8 +1359,8 @@
       <c r="I35" s="12"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="16"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="19"/>
       <c r="C36" s="9" t="s">
         <v>32</v>
       </c>
@@ -1372,16 +1372,16 @@
       <c r="I36" s="12"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="17"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="9" t="s">
         <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -1389,8 +1389,8 @@
       <c r="I37" s="12"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="5"/>
@@ -1402,8 +1402,8 @@
       <c r="I38" s="12"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="19"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="22"/>
       <c r="C39" s="9" t="s">
         <v>1</v>
       </c>
@@ -1417,8 +1417,8 @@
       <c r="I39" s="12"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="19"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
         <v>3</v>
@@ -1432,8 +1432,8 @@
       <c r="I40" s="12"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="19"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="9" t="s">
         <v>5</v>
       </c>
@@ -1447,8 +1447,8 @@
       <c r="I41" s="12"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="19"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="22"/>
       <c r="C42" s="9" t="s">
         <v>7</v>
       </c>
@@ -1462,14 +1462,12 @@
       <c r="I42" s="12"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="26" t="s">
+      <c r="A43" s="17"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
@@ -1477,11 +1475,11 @@
       <c r="I43" s="12"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="15"/>
       <c r="D44" s="2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1490,14 +1488,14 @@
       <c r="I44" s="12"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="24" t="s">
-        <v>39</v>
+      <c r="A45" s="17"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -1505,12 +1503,12 @@
       <c r="I45" s="12"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="19"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
       <c r="E46" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -1518,74 +1516,74 @@
       <c r="I46" s="12"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="12"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="19"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
       <c r="F48" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="12"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
       <c r="F49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I49" s="12"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H49" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I49" s="12"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="12"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="19"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="9" t="s">
         <v>32</v>
       </c>
@@ -1597,8 +1595,8 @@
       <c r="I51" s="12"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="23"/>
       <c r="C52" s="9" t="s">
         <v>33</v>
       </c>
@@ -1606,7 +1604,7 @@
         <v>34</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
@@ -1614,9 +1612,9 @@
       <c r="I52" s="12"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="21" t="s">
-        <v>50</v>
+      <c r="A53" s="17"/>
+      <c r="B53" s="24" t="s">
+        <v>46</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="5"/>
@@ -1627,14 +1625,14 @@
       <c r="I53" s="12"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="22"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
@@ -1642,16 +1640,16 @@
       <c r="I54" s="12"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="22"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="25"/>
       <c r="C55" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
@@ -1659,13 +1657,13 @@
       <c r="I55" s="12"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="26" t="s">
-        <v>55</v>
+      <c r="A56" s="17"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="15" t="s">
+        <v>51</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -1674,14 +1672,14 @@
       <c r="I56" s="12"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="17"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -1689,13 +1687,13 @@
       <c r="I57" s="12"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="26" t="s">
-        <v>58</v>
+      <c r="A58" s="17"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1704,11 +1702,11 @@
       <c r="I58" s="12"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="26"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="15"/>
       <c r="D59" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -1717,43 +1715,43 @@
       <c r="I59" s="12"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="24" t="s">
+      <c r="A60" s="17"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="24" t="s">
-        <v>79</v>
+      <c r="E60" s="14" t="s">
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="12"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
       <c r="F61" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61" s="12"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="17"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1762,59 +1760,50 @@
       <c r="I62" s="12"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="26" t="s">
-        <v>62</v>
+      <c r="A63" s="17"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="12"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="26"/>
+      <c r="A64" s="17"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="15"/>
       <c r="D64" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="12"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H65" s="2"/>
       <c r="I65" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G13:G21"/>
-    <mergeCell ref="E11:E26"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F12:F26"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="D8:D29"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="E47:E49"/>
     <mergeCell ref="A1:A65"/>
     <mergeCell ref="B1:B37"/>
     <mergeCell ref="B38:B52"/>
@@ -1825,6 +1814,15 @@
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="C58:C62"/>
     <mergeCell ref="C63:C65"/>
+    <mergeCell ref="G13:G21"/>
+    <mergeCell ref="E11:E26"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F12:F26"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="D8:D29"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="E47:E49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
